--- a/FBD/Practica 3/GraficasBloques.xlsx
+++ b/FBD/Practica 3/GraficasBloques.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\crispy-invention\FBD\Practica 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F8B7C-7ADF-4E0F-BB8D-040416FC4394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA700328-7219-45D8-8656-D04E4DBD6BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="2025" windowWidth="28800" windowHeight="15555" xr2:uid="{C3E989CC-9EF0-43D5-B841-7339D22189C1}"/>
+    <workbookView xWindow="-23250" yWindow="2190" windowWidth="21990" windowHeight="12870" xr2:uid="{C3E989CC-9EF0-43D5-B841-7339D22189C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -241,7 +241,7 @@
                   <c:v>75999.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61033.1</c:v>
+                  <c:v>175026.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>94693.26</c:v>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,6 +1397,9 @@
       <c r="D3" s="3">
         <v>61816.5</v>
       </c>
+      <c r="E3" s="3">
+        <v>232552.2</v>
+      </c>
       <c r="F3" s="3">
         <v>59664.800000000003</v>
       </c>
@@ -1417,6 +1420,9 @@
       <c r="D4" s="3">
         <v>48501.599999999999</v>
       </c>
+      <c r="E4" s="3">
+        <v>231494.5</v>
+      </c>
       <c r="F4" s="3">
         <v>133977.70000000001</v>
       </c>
@@ -1457,35 +1463,35 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <f>AVERAGE(B2:B27)</f>
+        <f t="shared" ref="B28:I28" si="0">AVERAGE(B2:B27)</f>
         <v>71522.649999999994</v>
       </c>
       <c r="C28" s="2">
-        <f>AVERAGE(C2:C27)</f>
+        <f t="shared" si="0"/>
         <v>67586.600000000006</v>
       </c>
       <c r="D28" s="2">
-        <f>AVERAGE(D2:D27)</f>
+        <f t="shared" si="0"/>
         <v>75999.5</v>
       </c>
       <c r="E28" s="2">
-        <f>AVERAGE(E2:E27)</f>
-        <v>61033.1</v>
+        <f t="shared" si="0"/>
+        <v>175026.6</v>
       </c>
       <c r="F28" s="2">
-        <f>AVERAGE(F2:F27)</f>
+        <f t="shared" si="0"/>
         <v>94693.26</v>
       </c>
       <c r="G28" s="2">
-        <f>AVERAGE(G2:G27)</f>
+        <f t="shared" si="0"/>
         <v>184224.625</v>
       </c>
       <c r="H28" s="2">
-        <f>AVERAGE(H2:H27)</f>
+        <f t="shared" si="0"/>
         <v>160060.96000000002</v>
       </c>
       <c r="I28" s="2">
-        <f>AVERAGE(I2:I27)</f>
+        <f t="shared" si="0"/>
         <v>191122.65000000002</v>
       </c>
     </row>
